--- a/excel/撞库失败.xlsx
+++ b/excel/撞库失败.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IDE\workspace\learn\easy-excel-learn\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4E0F6B-EE87-4E26-8B0C-802754AE9BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D927A50B-D1F6-4568-A4FC-C25E6F9F7133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="351">
   <si>
     <t>二网名称</t>
   </si>
@@ -43,6 +43,102 @@
     <t>失败原因</t>
   </si>
   <si>
+    <t>靖西市宝汇汽车销售服务有限公司</t>
+  </si>
+  <si>
+    <t>452626198501034822</t>
+  </si>
+  <si>
+    <t>621700345000305509</t>
+  </si>
+  <si>
+    <t>何潇</t>
+  </si>
+  <si>
+    <t>15707769066</t>
+  </si>
+  <si>
+    <t>收款账号不一致，请核实。</t>
+  </si>
+  <si>
+    <t>宁乡花明楼镇仁通汽车维修经营部</t>
+  </si>
+  <si>
+    <t>430124197605017998</t>
+  </si>
+  <si>
+    <t>6228451098016670977</t>
+  </si>
+  <si>
+    <t>曾虎军</t>
+  </si>
+  <si>
+    <t>13975186618</t>
+  </si>
+  <si>
+    <t>开户名不一致，请核实。</t>
+  </si>
+  <si>
+    <t>广南容达汽车销售有限公司</t>
+  </si>
+  <si>
+    <t>13098119870910568x</t>
+  </si>
+  <si>
+    <t>6231900000205117852</t>
+  </si>
+  <si>
+    <t>赵娟娟</t>
+  </si>
+  <si>
+    <t>13577679320</t>
+  </si>
+  <si>
+    <t>身份证号不一致，请核实。</t>
+  </si>
+  <si>
+    <t>330381198408280411</t>
+  </si>
+  <si>
+    <t>6228450338049906076</t>
+  </si>
+  <si>
+    <t>周建辉</t>
+  </si>
+  <si>
+    <t>13967779985</t>
+  </si>
+  <si>
+    <t>大竹县建辉车业有限公司</t>
+  </si>
+  <si>
+    <t>513029196706045108</t>
+  </si>
+  <si>
+    <t>6222082317001084584</t>
+  </si>
+  <si>
+    <t>傅发美</t>
+  </si>
+  <si>
+    <t>15281806389</t>
+  </si>
+  <si>
+    <t>封开县南丰镇前讯车行</t>
+  </si>
+  <si>
+    <t>440823197609205922</t>
+  </si>
+  <si>
+    <t>6228481159161090777</t>
+  </si>
+  <si>
+    <t>李文花</t>
+  </si>
+  <si>
+    <t>15219069205</t>
+  </si>
+  <si>
     <t>阜阳市尚越汽车销售服务有限公司</t>
   </si>
   <si>
@@ -58,9 +154,6 @@
     <t>13349213013</t>
   </si>
   <si>
-    <t>开户名不一致，请核实。</t>
-  </si>
-  <si>
     <t>台前县永安中兴之宝汽车销售服务站</t>
   </si>
   <si>
@@ -121,6 +214,21 @@
     <t>13817662770</t>
   </si>
   <si>
+    <t>阜南县青松汽车销售有限公司</t>
+  </si>
+  <si>
+    <t>341225199408174310</t>
+  </si>
+  <si>
+    <t>6215581311001524525</t>
+  </si>
+  <si>
+    <t>丁青松</t>
+  </si>
+  <si>
+    <t>18855853607</t>
+  </si>
+  <si>
     <t>山西凌拓汽车销售有限公司</t>
   </si>
   <si>
@@ -136,9 +244,6 @@
     <t>18602346330</t>
   </si>
   <si>
-    <t>收款账号不一致，请核实。</t>
-  </si>
-  <si>
     <t>四川企鹅车汇汽车销售有限公司</t>
   </si>
   <si>
@@ -154,6 +259,21 @@
     <t>19938757800</t>
   </si>
   <si>
+    <t>弥勒众亿汽车销售服务有限公司</t>
+  </si>
+  <si>
+    <t>532524198707294015</t>
+  </si>
+  <si>
+    <t>6217003910003341154</t>
+  </si>
+  <si>
+    <t>师洪权</t>
+  </si>
+  <si>
+    <t>13094345161</t>
+  </si>
+  <si>
     <t>武陟县明亮汽车贸易有限公司</t>
   </si>
   <si>
@@ -199,6 +319,21 @@
     <t>15860751681</t>
   </si>
   <si>
+    <t>河北云鹏汽车销售服务有限公司</t>
+  </si>
+  <si>
+    <t>130432198901050055</t>
+  </si>
+  <si>
+    <t>6217000110017242679</t>
+  </si>
+  <si>
+    <t>张云鹏</t>
+  </si>
+  <si>
+    <t>17732017555</t>
+  </si>
+  <si>
     <t>陆良景浩商贸有限公司</t>
   </si>
   <si>
@@ -349,9 +484,6 @@
     <t>13588682201</t>
   </si>
   <si>
-    <t>身份证号不一致，请核实。</t>
-  </si>
-  <si>
     <t>汶上县亨运工贸有限公司</t>
   </si>
   <si>
@@ -367,6 +499,36 @@
     <t>13964945269</t>
   </si>
   <si>
+    <t>苏州佳成润汽车服务有限公司</t>
+  </si>
+  <si>
+    <t>321281199312011012</t>
+  </si>
+  <si>
+    <t>6217002000033259187</t>
+  </si>
+  <si>
+    <t>袁逸群</t>
+  </si>
+  <si>
+    <t>15061069229</t>
+  </si>
+  <si>
+    <t>玉溪市德鑫汽车商贸有限公司</t>
+  </si>
+  <si>
+    <t>53240119800216152X</t>
+  </si>
+  <si>
+    <t>6217852700012291686</t>
+  </si>
+  <si>
+    <t>向金华</t>
+  </si>
+  <si>
+    <t>13708771144</t>
+  </si>
+  <si>
     <t>佛山市栢杰能汽车信息咨询服务有限公司</t>
   </si>
   <si>
@@ -397,6 +559,36 @@
     <t>18121859826</t>
   </si>
   <si>
+    <t>天津鑫腾汽车科技有限公司</t>
+  </si>
+  <si>
+    <t>131125199006151883</t>
+  </si>
+  <si>
+    <t>6214850123188671</t>
+  </si>
+  <si>
+    <t>梁赏</t>
+  </si>
+  <si>
+    <t>13552904073</t>
+  </si>
+  <si>
+    <t>彭水福源汽车销售有限公司</t>
+  </si>
+  <si>
+    <t>500239199403235599</t>
+  </si>
+  <si>
+    <t>6222033100050745432</t>
+  </si>
+  <si>
+    <t>张志郁</t>
+  </si>
+  <si>
+    <t>15856093277</t>
+  </si>
+  <si>
     <t>攀枝花市众航汽车服务有限公司</t>
   </si>
   <si>
@@ -427,6 +619,21 @@
     <t>18657993939</t>
   </si>
   <si>
+    <t>陕西鸿途启跃汽车贸易有限公司</t>
+  </si>
+  <si>
+    <t>612526199912044098</t>
+  </si>
+  <si>
+    <t>6214680124635705</t>
+  </si>
+  <si>
+    <t>李锋</t>
+  </si>
+  <si>
+    <t>15594805840</t>
+  </si>
+  <si>
     <t>佛山市广人和信汽车销售服务有限公司</t>
   </si>
   <si>
@@ -502,6 +709,21 @@
     <t>13937962595</t>
   </si>
   <si>
+    <t>上海奔誊汽车销售服务有限公司</t>
+  </si>
+  <si>
+    <t>411528199511055989</t>
+  </si>
+  <si>
+    <t>6230520030120499079</t>
+  </si>
+  <si>
+    <t>任霞</t>
+  </si>
+  <si>
+    <t>15221512240</t>
+  </si>
+  <si>
     <t>厦门翔兴众汽车贸易有限公司</t>
   </si>
   <si>
@@ -517,6 +739,21 @@
     <t>15280208017</t>
   </si>
   <si>
+    <t>四川安丰旺商贸有限公司</t>
+  </si>
+  <si>
+    <t>513021198510290038</t>
+  </si>
+  <si>
+    <t>6222032317000895890</t>
+  </si>
+  <si>
+    <t>唐贵成</t>
+  </si>
+  <si>
+    <t>18282936600</t>
+  </si>
+  <si>
     <t>青岛双林源汽车销售服务有限公司</t>
   </si>
   <si>
@@ -547,6 +784,21 @@
     <t>18622689111</t>
   </si>
   <si>
+    <t>河南红誉祥汽车销售有限公司</t>
+  </si>
+  <si>
+    <t>410928198410182432</t>
+  </si>
+  <si>
+    <t>6212261712005148977</t>
+  </si>
+  <si>
+    <t>尚红坤</t>
+  </si>
+  <si>
+    <t>13938337197</t>
+  </si>
+  <si>
     <t>安徽江铃汽车销售有限公司</t>
   </si>
   <si>
@@ -577,6 +829,36 @@
     <t>18682637373</t>
   </si>
   <si>
+    <t>隆林远鸿汽车销售有限公司</t>
+  </si>
+  <si>
+    <t>452632199302161337</t>
+  </si>
+  <si>
+    <t>6217996100066110451</t>
+  </si>
+  <si>
+    <t>韦亚远</t>
+  </si>
+  <si>
+    <t>18477661277</t>
+  </si>
+  <si>
+    <t>德阳同展汽车销售有限公司</t>
+  </si>
+  <si>
+    <t>510626198807184596</t>
+  </si>
+  <si>
+    <t>6225629900000160712</t>
+  </si>
+  <si>
+    <t>张和金</t>
+  </si>
+  <si>
+    <t>18990260889</t>
+  </si>
+  <si>
     <t>保定欧美亚汽车销售服务有限公司</t>
   </si>
   <si>
@@ -592,6 +874,21 @@
     <t>13903329044</t>
   </si>
   <si>
+    <t>中山市文杰汽车销售有限公司</t>
+  </si>
+  <si>
+    <t>362130198105201516</t>
+  </si>
+  <si>
+    <t>6228480106704003578</t>
+  </si>
+  <si>
+    <t>钟慧敏</t>
+  </si>
+  <si>
+    <t>13420028385</t>
+  </si>
+  <si>
     <t>广西三淼汽车贸易有限公司</t>
   </si>
   <si>
@@ -607,6 +904,21 @@
     <t>13973501808</t>
   </si>
   <si>
+    <t>成都晨风汽车销售服务有限公司</t>
+  </si>
+  <si>
+    <t>513701199207153011</t>
+  </si>
+  <si>
+    <t>6217003810061508076</t>
+  </si>
+  <si>
+    <t>李长安</t>
+  </si>
+  <si>
+    <t>13408480523</t>
+  </si>
+  <si>
     <t>亳州捷中汽车销售有限公司</t>
   </si>
   <si>
@@ -652,6 +964,21 @@
     <t>18339377080</t>
   </si>
   <si>
+    <t>梓潼县众盛汽车销售有限公司</t>
+  </si>
+  <si>
+    <t>510725198609103416</t>
+  </si>
+  <si>
+    <t>6228480489629424974</t>
+  </si>
+  <si>
+    <t>张仕明</t>
+  </si>
+  <si>
+    <t>13699611247</t>
+  </si>
+  <si>
     <t>广西那坡县新城汽车销售有限公司</t>
   </si>
   <si>
@@ -667,6 +994,21 @@
     <t>15077629900</t>
   </si>
   <si>
+    <t>泰安泰宏商贸有限公司</t>
+  </si>
+  <si>
+    <t>370911198011244819</t>
+  </si>
+  <si>
+    <t>6212261604004057475</t>
+  </si>
+  <si>
+    <t>李强</t>
+  </si>
+  <si>
+    <t>18266511577</t>
+  </si>
+  <si>
     <t>南京翔远汽车销售服务有限公司</t>
   </si>
   <si>
@@ -682,7 +1024,22 @@
     <t>13584042898</t>
   </si>
   <si>
-    <t>昆明恒鑫汽车销售服务有限公司</t>
+    <t>项城市兴项汽车销售服务有限公司</t>
+  </si>
+  <si>
+    <t>412729197010277443</t>
+  </si>
+  <si>
+    <t>4340622510028063</t>
+  </si>
+  <si>
+    <t>王超丽</t>
+  </si>
+  <si>
+    <t>15516773888</t>
+  </si>
+  <si>
+    <t>昆明恒鑫汽车销���服务有限公司</t>
   </si>
   <si>
     <t>530128198210185114</t>
@@ -710,13 +1067,21 @@
   </si>
   <si>
     <t>13350409966</t>
+  </si>
+  <si>
+    <t>新车</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞安瑞荣汽车有限公司</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -740,6 +1105,18 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -784,7 +1161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -792,6 +1169,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1106,24 +1485,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="18.25" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" customWidth="1"/>
     <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.5">
+    <row r="1" spans="1:7" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1150,8 +1524,8 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
+      <c r="B2" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1173,8 +1547,8 @@
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2">
-        <v>1</v>
+      <c r="B3" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -1189,73 +1563,73 @@
         <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15">
-      <c r="A5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
       <c r="A6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>12</v>
@@ -1263,33 +1637,33 @@
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
+      <c r="B8" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>40</v>
@@ -1304,15 +1678,15 @@
         <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="2">
-        <v>1</v>
+      <c r="B9" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
@@ -1327,15 +1701,15 @@
         <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="A10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="2">
-        <v>1</v>
+      <c r="B10" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>50</v>
@@ -1350,15 +1724,15 @@
         <v>53</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
+      <c r="B11" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>55</v>
@@ -1373,15 +1747,15 @@
         <v>58</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
+      <c r="B12" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>60</v>
@@ -1396,15 +1770,15 @@
         <v>63</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
+      <c r="B13" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>65</v>
@@ -1419,15 +1793,15 @@
         <v>68</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="2">
-        <v>1</v>
+      <c r="B14" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>70</v>
@@ -1449,8 +1823,8 @@
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
+      <c r="B15" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>75</v>
@@ -1465,15 +1839,15 @@
         <v>78</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15">
       <c r="A16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
+      <c r="B16" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>80</v>
@@ -1495,8 +1869,8 @@
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
+      <c r="B17" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>85</v>
@@ -1511,15 +1885,15 @@
         <v>88</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15">
       <c r="A18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
+      <c r="B18" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>90</v>
@@ -1534,15 +1908,15 @@
         <v>93</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
+      <c r="B19" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>95</v>
@@ -1557,15 +1931,15 @@
         <v>98</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15">
       <c r="A20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
+      <c r="B20" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>100</v>
@@ -1580,15 +1954,15 @@
         <v>103</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15">
       <c r="A21" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
+      <c r="B21" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>105</v>
@@ -1603,27 +1977,27 @@
         <v>108</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15">
       <c r="A22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>12</v>
@@ -1631,137 +2005,137 @@
     </row>
     <row r="23" spans="1:7" ht="15">
       <c r="A23" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15">
       <c r="A24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B24" s="2">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15">
       <c r="A25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B25" s="2">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15">
       <c r="A26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15">
       <c r="A27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15">
       <c r="A28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="2">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>12</v>
@@ -1769,206 +2143,206 @@
     </row>
     <row r="29" spans="1:7" ht="15">
       <c r="A29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15">
       <c r="A30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="2">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15">
       <c r="A31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G31" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15">
       <c r="A32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15">
       <c r="A33" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="2">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15">
       <c r="A34" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15">
       <c r="A35" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="G35" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15">
       <c r="A36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15">
       <c r="A37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>12</v>
@@ -1976,186 +2350,738 @@
     </row>
     <row r="38" spans="1:7" ht="15">
       <c r="A38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15">
       <c r="A39" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15">
       <c r="A40" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B40" s="2">
-        <v>1</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15">
       <c r="A41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B41" s="2">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15">
       <c r="A42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B42" s="2">
-        <v>1</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="G42" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15">
       <c r="A43" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15">
       <c r="A44" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B44" s="2">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15">
       <c r="A45" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B45" s="2">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15">
+      <c r="A46" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15">
+      <c r="A47" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15">
+      <c r="A49" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15">
+      <c r="A50" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15">
+      <c r="A51" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15">
+      <c r="A52" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15">
+      <c r="A53" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15">
+      <c r="A57" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15">
+      <c r="A58" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15">
+      <c r="A59" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15">
+      <c r="A60" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15">
+      <c r="A61" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15">
+      <c r="A62" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15">
+      <c r="A63" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15">
+      <c r="A64" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15">
+      <c r="A65" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15">
+      <c r="A66" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15">
+      <c r="A67" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15">
+      <c r="A68" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15">
+      <c r="A69" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
